--- a/dmsan/data/technology_scores.xlsx
+++ b/dmsan/data/technology_scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\dmsan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0D290-6727-4EB9-9A60-C72B624BABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E42ECA9-623E-4971-8C1D-9FCD2E04337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="OM_complexity" sheetId="7" r:id="rId7"/>
     <sheet name="pop_flexibility" sheetId="8" r:id="rId8"/>
     <sheet name="storm_flexibility" sheetId="9" r:id="rId9"/>
-    <sheet name="temp_flexibility" sheetId="10" r:id="rId10"/>
+    <sheet name="electricity_flexibility" sheetId="10" r:id="rId10"/>
     <sheet name="drought_flexibility" sheetId="11" r:id="rId11"/>
     <sheet name="water_reuse" sheetId="29" r:id="rId12"/>
     <sheet name="N_nutrient_recovery" sheetId="30" r:id="rId13"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="259">
   <si>
     <t>Criteria</t>
   </si>
@@ -215,9 +215,6 @@
     <t>pop_flexibility_1</t>
   </si>
   <si>
-    <t>USD/%pop change</t>
-  </si>
-  <si>
     <t>pop_flexibility_2</t>
   </si>
   <si>
@@ -230,51 +227,24 @@
     <t>storm_flexibility_1</t>
   </si>
   <si>
-    <t>USD/storm event</t>
-  </si>
-  <si>
     <t>storm_flexibility_2</t>
   </si>
   <si>
     <t>storm_flexibility_3</t>
   </si>
   <si>
-    <t>impact of extreme temperature changes</t>
-  </si>
-  <si>
-    <t>temp_flexibility_1</t>
-  </si>
-  <si>
-    <t>USD/change in annual average temp by 1 C</t>
-  </si>
-  <si>
-    <t>temp_flexibility_2</t>
-  </si>
-  <si>
-    <t>temp_flexibility_3</t>
-  </si>
-  <si>
     <t>impact of droughts</t>
   </si>
   <si>
     <t>drought_flexibility_1</t>
   </si>
   <si>
-    <t>USD/price increase in water USD/m^3</t>
-  </si>
-  <si>
     <t>drought_flexibility_2</t>
   </si>
   <si>
-    <t>USD/price increase in water USD/m^4</t>
-  </si>
-  <si>
     <t>drought_flexibility_3</t>
   </si>
   <si>
-    <t>USD/price increase in water USD/m^5</t>
-  </si>
-  <si>
     <t>Environmental</t>
   </si>
   <si>
@@ -464,9 +434,6 @@
     <t>Impact of storms</t>
   </si>
   <si>
-    <t>Impact of extreme temperature changes</t>
-  </si>
-  <si>
     <t>utility_preference</t>
   </si>
   <si>
@@ -849,6 +816,30 @@
   </si>
   <si>
     <t>Not in spreadsheet</t>
+  </si>
+  <si>
+    <t>Impact of electricity blackouts</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>electricity_flexibility_1</t>
+  </si>
+  <si>
+    <t>electricity_flexibility_2</t>
+  </si>
+  <si>
+    <t>electricity_flexibility_3</t>
+  </si>
+  <si>
+    <t>impact of electricity blackouts</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1326,37 +1317,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1373,13 +1364,13 @@
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1396,13 +1387,13 @@
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1419,13 +1410,13 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1442,13 +1433,13 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1465,13 +1456,13 @@
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1487,34 +1478,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1531,10 +1525,13 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>251</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -1550,43 +1547,46 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
@@ -1594,22 +1594,22 @@
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
@@ -1617,22 +1617,22 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
@@ -1640,22 +1640,22 @@
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>18</v>
@@ -1709,82 +1709,82 @@
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -1792,22 +1792,22 @@
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>24</v>
@@ -1815,22 +1815,22 @@
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>24</v>
@@ -1838,22 +1838,22 @@
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>13</v>
@@ -1861,19 +1861,19 @@
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>18</v>
@@ -1884,22 +1884,22 @@
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>24</v>
@@ -1907,42 +1907,42 @@
     </row>
     <row r="27" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>18</v>
@@ -1953,19 +1953,19 @@
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>18</v>
@@ -1976,19 +1976,19 @@
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>18</v>
@@ -1999,22 +1999,22 @@
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>13</v>
@@ -2022,19 +2022,19 @@
     </row>
     <row r="32" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
@@ -2045,19 +2045,19 @@
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
@@ -2083,15 +2083,15 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2138,22 +2138,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -2167,7 +2161,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2176,22 +2170,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -2205,7 +2193,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2214,22 +2202,16 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -2255,14 +2237,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2300,7 +2282,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2309,22 +2291,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -2338,7 +2314,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2347,22 +2323,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -2376,7 +2346,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2385,22 +2355,16 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -2433,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2471,22 +2435,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2503,22 +2467,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2535,22 +2499,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2585,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2623,22 +2587,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -2661,22 +2625,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -2699,22 +2663,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -2756,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2794,22 +2758,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -2832,22 +2796,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>74</v>
@@ -2870,22 +2834,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
         <v>198</v>
       </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -2927,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2965,22 +2929,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -3003,22 +2967,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>76</v>
@@ -3041,22 +3005,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>96</v>
@@ -3097,7 +3061,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3135,22 +3099,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3167,22 +3131,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -3205,22 +3169,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3256,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3294,22 +3258,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3326,22 +3290,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3358,22 +3322,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3412,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3447,22 +3411,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G2" s="12">
         <v>14</v>
@@ -3482,22 +3446,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G3" s="12">
         <v>8</v>
@@ -3517,22 +3481,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G4" s="12">
         <v>22</v>
@@ -3568,7 +3532,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3603,22 +3567,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3629,22 +3593,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3655,22 +3619,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -3703,16 +3667,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -3736,12 +3700,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3770,7 +3734,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3799,7 +3763,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3844,7 +3808,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3879,22 +3843,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3905,22 +3869,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3931,22 +3895,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3976,7 +3940,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4014,22 +3978,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>0.8</v>
@@ -4052,22 +4016,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -4090,22 +4054,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <f>52*2</f>
@@ -4147,7 +4111,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4185,19 +4149,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4217,19 +4181,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4249,19 +4213,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4297,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4335,22 +4299,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4367,22 +4331,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4399,22 +4363,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4447,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4482,19 +4446,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4511,19 +4475,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4540,19 +4504,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4582,7 +4546,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4617,19 +4581,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4643,19 +4607,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4669,19 +4633,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4711,7 +4675,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4746,19 +4710,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4772,19 +4736,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4798,19 +4762,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4840,7 +4804,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4875,19 +4839,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4901,19 +4865,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4927,19 +4891,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4968,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5003,19 +4967,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5029,19 +4993,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5055,19 +5019,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5097,7 +5061,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5132,19 +5096,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5158,19 +5122,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5184,19 +5148,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5232,16 +5196,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -5265,12 +5229,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5299,7 +5263,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5328,7 +5292,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5373,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5408,19 +5372,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5434,19 +5398,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5460,19 +5424,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5509,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5547,7 +5511,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5579,7 +5543,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5611,7 +5575,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5665,7 +5629,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5703,7 +5667,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5732,7 +5696,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5761,7 +5725,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5809,7 +5773,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5847,7 +5811,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5876,7 +5840,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5905,7 +5869,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5946,14 +5910,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5991,7 +5955,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6020,7 +5984,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6049,7 +6013,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6090,7 +6054,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6100,7 +6064,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6138,7 +6102,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6153,16 +6117,10 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -6176,7 +6134,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6188,19 +6146,13 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -6214,7 +6166,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6226,19 +6178,13 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -6264,14 +6210,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6309,7 +6255,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6318,22 +6264,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -6347,7 +6287,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6356,22 +6296,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -6385,7 +6319,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6394,22 +6328,16 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>

--- a/dmsan/data/technology_scores.xlsx
+++ b/dmsan/data/technology_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\dmsan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E42ECA9-623E-4971-8C1D-9FCD2E04337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657130E-01E4-4D20-9E2F-8BDCC1EB2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="26" activeTab="29" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -2083,7 +2083,7 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3723,7 +3723,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -4104,7 +4104,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4167,7 +4167,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -4199,7 +4199,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -4231,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -4404,7 +4404,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4464,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -4493,7 +4493,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -4522,7 +4522,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4599,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -4625,7 +4625,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -4651,7 +4651,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -5329,8 +5329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE78D9E-A590-4EAA-B765-BA883BF4243E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/dmsan/data/technology_scores.xlsx
+++ b/dmsan/data/technology_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\dmsan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657130E-01E4-4D20-9E2F-8BDCC1EB2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="26" activeTab="29" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -37,12 +37,9 @@
     <sheet name="end_user_cleaning" sheetId="17" r:id="rId22"/>
     <sheet name="privacy" sheetId="18" r:id="rId23"/>
     <sheet name="odor" sheetId="19" r:id="rId24"/>
-    <sheet name="noise" sheetId="20" r:id="rId25"/>
-    <sheet name="end_user_disposal_safety" sheetId="21" r:id="rId26"/>
-    <sheet name="security" sheetId="22" r:id="rId27"/>
-    <sheet name="management_disposal" sheetId="23" r:id="rId28"/>
-    <sheet name="management_cleaning" sheetId="26" r:id="rId29"/>
-    <sheet name="management_disposal_safety" sheetId="27" r:id="rId30"/>
+    <sheet name="security" sheetId="22" r:id="rId25"/>
+    <sheet name="management_disposal" sheetId="23" r:id="rId26"/>
+    <sheet name="management_cleaning" sheetId="26" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="251">
   <si>
     <t>Criteria</t>
   </si>
@@ -365,24 +362,6 @@
     <t>odor_3</t>
   </si>
   <si>
-    <t>noise produced by the system</t>
-  </si>
-  <si>
-    <t>noise_1</t>
-  </si>
-  <si>
-    <t>noise_2</t>
-  </si>
-  <si>
-    <t>noise_3</t>
-  </si>
-  <si>
-    <t>safety of disposal</t>
-  </si>
-  <si>
-    <t>safety to dispose of sludge</t>
-  </si>
-  <si>
     <t>end_user_disposal_safety_1</t>
   </si>
   <si>
@@ -485,15 +464,6 @@
     <t>The cleaning requirement for the management/landlord</t>
   </si>
   <si>
-    <t>management_disposal_safety_1</t>
-  </si>
-  <si>
-    <t>management_disposal_safety_2</t>
-  </si>
-  <si>
-    <t>management_disposal_safety_3</t>
-  </si>
-  <si>
     <t>Safety to dispose of sludge for the management/landlord</t>
   </si>
   <si>
@@ -840,6 +810,9 @@
   </si>
   <si>
     <t>impact of electricity blackouts</t>
+  </si>
+  <si>
+    <t>triangular</t>
   </si>
 </sst>
 </file>
@@ -1303,51 +1276,52 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.4140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1362,15 +1336,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1385,15 +1359,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1408,15 +1382,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1431,15 +1405,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1454,15 +1428,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1477,15 +1451,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1500,15 +1474,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1523,15 +1497,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -1546,15 +1520,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
@@ -1569,136 +1543,136 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>18</v>
@@ -1707,15 +1681,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
@@ -1724,18 +1698,18 @@
         <v>61</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>60</v>
@@ -1744,18 +1718,18 @@
         <v>61</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>60</v>
@@ -1764,24 +1738,24 @@
         <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>66</v>
@@ -1790,15 +1764,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>69</v>
@@ -1813,15 +1787,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>69</v>
@@ -1836,21 +1810,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>84</v>
@@ -1859,21 +1833,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>18</v>
@@ -1882,21 +1856,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>93</v>
@@ -1905,44 +1879,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>18</v>
@@ -1951,21 +1925,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>18</v>
@@ -1974,21 +1948,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>18</v>
@@ -1997,21 +1971,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>84</v>
@@ -2020,21 +1994,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
@@ -2043,21 +2017,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
@@ -2066,7 +2040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="H34" s="2"/>
     </row>
   </sheetData>
@@ -2087,11 +2061,11 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2127,9 +2101,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2138,10 +2112,10 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2159,9 +2133,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2170,10 +2144,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -2191,9 +2165,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2202,10 +2176,10 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -2240,11 +2214,11 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2280,9 +2254,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2312,9 +2286,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2344,9 +2318,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2393,11 +2367,11 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2433,24 +2407,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2465,24 +2439,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2497,24 +2471,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2545,11 +2519,11 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2585,24 +2559,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -2623,24 +2597,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -2661,24 +2635,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -2716,11 +2690,11 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2756,24 +2730,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>196</v>
-      </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -2794,24 +2768,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>74</v>
@@ -2832,24 +2806,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -2887,11 +2861,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2927,24 +2901,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -2965,24 +2939,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>76</v>
@@ -3003,24 +2977,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>96</v>
@@ -3057,11 +3031,11 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3097,24 +3071,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3129,24 +3103,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -3167,24 +3141,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3216,11 +3190,11 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3256,24 +3230,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3288,24 +3262,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3320,24 +3294,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3369,14 +3343,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3409,9 +3383,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -3444,9 +3418,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -3479,9 +3453,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3525,14 +3499,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3565,9 +3539,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -3591,9 +3565,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -3611,15 +3585,26 @@
         <v>73</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>37.5</v>
+      </c>
+      <c r="H3">
+        <f>G3-(G3*0.25)</f>
+        <v>28.125</v>
+      </c>
+      <c r="I3">
+        <f>G3+(G3*0.25)</f>
+        <v>46.875</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3637,10 +3622,21 @@
         <v>73</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <f>G4-(G4*0.25)</f>
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <f>G4+(G4*0.25)</f>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3660,23 +3656,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -3700,12 +3696,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3732,9 +3728,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3761,9 +3757,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3801,14 +3797,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3841,9 +3837,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -3867,9 +3863,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -3887,15 +3883,26 @@
         <v>78</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>G3-(G3*0.25)</f>
+        <v>3.75</v>
+      </c>
+      <c r="I3">
+        <f>G3+(G3*0.25)</f>
+        <v>6.25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3913,7 +3920,7 @@
         <v>78</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -3929,18 +3936,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107C111-3804-1240-99DA-17B1CE3A7796}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3976,9 +3983,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4014,9 +4021,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -4052,9 +4059,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4107,11 +4114,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4147,9 +4154,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4179,9 +4186,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -4211,9 +4218,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4257,11 +4264,11 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4297,9 +4304,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4329,9 +4336,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -4361,9 +4368,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4407,11 +4414,11 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4444,9 +4451,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4473,9 +4480,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -4502,9 +4509,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4535,18 +4542,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D01FA-0383-3543-8C45-2B6643B1A76B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4579,103 +4586,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288570F4-C753-3248-B3A0-EDADDC2F815B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332F5F-32EC-C046-8FDB-241E5C1F829A}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4708,21 +4714,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4734,21 +4740,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4760,21 +4766,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4793,263 +4799,6 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332F5F-32EC-C046-8FDB-241E5C1F829A}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E922356-1DFC-4726-8591-7B465EEC758C}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5057,11 +4806,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5094,21 +4843,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5120,21 +4869,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5146,21 +4895,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5189,23 +4938,23 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -5229,12 +4978,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5261,9 +5010,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5290,9 +5039,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5317,135 +5066,6 @@
       </c>
       <c r="L4" t="s">
         <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE78D9E-A590-4EAA-B765-BA883BF4243E}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5465,15 +5085,15 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5509,9 +5129,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5541,9 +5161,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5573,9 +5193,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5622,14 +5242,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.08203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5665,9 +5285,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5694,9 +5314,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5723,9 +5343,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5769,11 +5389,11 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5809,9 +5429,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5838,9 +5458,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5867,9 +5487,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5913,11 +5533,11 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5953,9 +5573,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5982,9 +5602,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6011,9 +5631,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6057,14 +5677,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6100,9 +5720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6132,9 +5752,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6164,9 +5784,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6213,11 +5833,11 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6253,9 +5873,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6285,9 +5905,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6317,9 +5937,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
